--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2116014.294854859</v>
+        <v>2113762.21514365</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>120.7740905403533</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>204.0005215907917</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541850957</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>28.46932083023247</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>83.14575164575383</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0.3107267886851923</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>203.87511662885</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>53.54735467376837</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>227.7105852455751</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>139.1755959712196</v>
       </c>
       <c r="H8" t="n">
-        <v>256.395476851557</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>32.6439394525493</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>19.52918235370607</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>109.8058856274564</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.40545032729</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892481</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409457819</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787976812</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>38.95525409458221</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365955</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>145.2857567969021</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046926</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>78.68827782033915</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146451</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653545</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>457.9680739783734</v>
+        <v>95.26900615969095</v>
       </c>
       <c r="C4" t="n">
-        <v>457.9680739783734</v>
+        <v>95.26900615969095</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>95.26900615969095</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>95.26900615969095</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>95.26900615969095</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757135</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757135</v>
+        <v>639.3706644025384</v>
       </c>
       <c r="T4" t="n">
-        <v>747.0709408527298</v>
+        <v>639.3706644025384</v>
       </c>
       <c r="U4" t="n">
-        <v>457.9680739783734</v>
+        <v>639.3706644025384</v>
       </c>
       <c r="V4" t="n">
-        <v>457.9680739783734</v>
+        <v>384.6861761966516</v>
       </c>
       <c r="W4" t="n">
-        <v>457.9680739783734</v>
+        <v>95.26900615969095</v>
       </c>
       <c r="X4" t="n">
-        <v>457.9680739783734</v>
+        <v>95.26900615969095</v>
       </c>
       <c r="Y4" t="n">
-        <v>457.9680739783734</v>
+        <v>95.26900615969095</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221568</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.278680221568</v>
+        <v>916.6290841382822</v>
       </c>
       <c r="D5" t="n">
-        <v>1023.012981614818</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1023.012981614818</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>612.0270768252101</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.87852028569</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>866.7987687739744</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>866.7987687739744</v>
       </c>
       <c r="T7" t="n">
-        <v>699.120390387711</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U7" t="n">
-        <v>469.1096982204634</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V7" t="n">
-        <v>214.4252100145765</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C8" t="n">
-        <v>1491.569348694473</v>
+        <v>939.4077790033343</v>
       </c>
       <c r="D8" t="n">
-        <v>1133.303650087723</v>
+        <v>939.4077790033343</v>
       </c>
       <c r="E8" t="n">
-        <v>747.5153974894783</v>
+        <v>553.61952640509</v>
       </c>
       <c r="F8" t="n">
-        <v>336.5294926998708</v>
+        <v>546.6740256558866</v>
       </c>
       <c r="G8" t="n">
-        <v>325.4974465852713</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810548</v>
@@ -4817,37 +4817,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758595</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158142</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>700.0944266746549</v>
+        <v>196.8114698285343</v>
       </c>
       <c r="C10" t="n">
-        <v>531.158243746748</v>
+        <v>196.8114698285343</v>
       </c>
       <c r="D10" t="n">
-        <v>381.0416043344122</v>
+        <v>196.8114698285343</v>
       </c>
       <c r="E10" t="n">
-        <v>233.1285107520191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>86.23856325410875</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025384</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>417.6040489720644</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>417.6040489720644</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>417.6040489720644</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>417.6040489720644</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>417.6040489720644</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.0944266746549</v>
+        <v>196.8114698285343</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,10 +5033,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2269.002343845333</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>923.067041434951</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1550.665004989557</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228844</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978459</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E16" t="n">
-        <v>274.8772357154528</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>274.8772357154528</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,19 +5534,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,22 +5653,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5729,31 +5729,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192596</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,7 +6014,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708873</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.395944601127</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277309</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,46 +6388,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797698</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6628,43 +6628,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,46 +7151,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7649,7 +7649,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>71.22040037418819</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>186.754401294459</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>127.725524766801</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>126.5688841976866</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788572</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>72.11969353038614</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187658</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>66.73277020259209</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194592</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.863807564</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.863807564</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.863807564</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>842573.863807564</v>
+        <v>842573.8638075643</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.8638075643</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.8638075643</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="F2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752544</v>
@@ -26332,25 +26332,25 @@
         <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26430,7 +26430,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26442,16 +26442,16 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
+        <v>16046.58397189198</v>
+      </c>
+      <c r="N4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16046.58397189198</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.1472414329</v>
+        <v>-935020.147241433</v>
       </c>
       <c r="C6" t="n">
-        <v>393724.5984861597</v>
+        <v>393724.5984861591</v>
       </c>
       <c r="D6" t="n">
-        <v>393724.5984861598</v>
+        <v>393724.59848616</v>
       </c>
       <c r="E6" t="n">
-        <v>142599.7091721001</v>
+        <v>142564.9712466641</v>
       </c>
       <c r="F6" t="n">
-        <v>468012.1709794553</v>
+        <v>467977.4330540198</v>
       </c>
       <c r="G6" t="n">
-        <v>468012.1709794553</v>
+        <v>467977.4330540194</v>
       </c>
       <c r="H6" t="n">
-        <v>468012.1709794552</v>
+        <v>467977.4330540195</v>
       </c>
       <c r="I6" t="n">
-        <v>468012.1709794553</v>
+        <v>467977.4330540197</v>
       </c>
       <c r="J6" t="n">
-        <v>250480.9685821778</v>
+        <v>250446.2306567422</v>
       </c>
       <c r="K6" t="n">
-        <v>468012.1709794554</v>
+        <v>467977.4330540194</v>
       </c>
       <c r="L6" t="n">
-        <v>468012.1709794554</v>
+        <v>467977.4330540195</v>
       </c>
       <c r="M6" t="n">
-        <v>382957.1430439436</v>
+        <v>382922.4051185079</v>
       </c>
       <c r="N6" t="n">
-        <v>468012.1709794553</v>
+        <v>467977.4330540196</v>
       </c>
       <c r="O6" t="n">
-        <v>468012.1709794555</v>
+        <v>467977.4330540196</v>
       </c>
       <c r="P6" t="n">
-        <v>468012.1709794553</v>
+        <v>467977.4330540196</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>244.4988012306543</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>165.7305790876773</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.968393692852835e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>137.5564874287957</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>136.4031976304154</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.3723148319978</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>207.0466090246035</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>35.38479799627896</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>58.50125296003776</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>271.7461296822339</v>
       </c>
       <c r="H8" t="n">
-        <v>38.21228753576344</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>113.7900231940199</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>146.4966259053222</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28299,10 +28299,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29460,7 +29460,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-2.431370572697407e-12</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138809</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,7 +31853,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,7 +31862,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32081,31 +32081,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>353.3934907042778</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,28 +32786,28 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,10 +33266,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>553.392502062293</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>652.3203287778407</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,10 +34369,10 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340067</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,7 +35501,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>219.4190832899476</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>45.87687150790111</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191267</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>414.8381222824188</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -36996,7 +36996,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010414</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>520.9786166945074</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
